--- a/test_data/ios.xlsx
+++ b/test_data/ios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="8000" windowHeight="4940" activeTab="1"/>
+    <workbookView xWindow="1840" yWindow="6480" windowWidth="25600" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Download" sheetId="9" r:id="rId9"/>
     <sheet name="GoToPage" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>username</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>dieson1@lexisred.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Email address does not exist.</t>
+  </si>
+  <si>
+    <t>Either the email or password you entered is incorrect. Please try again.</t>
+  </si>
+  <si>
+    <t>ran.zuo@lexisnexis.com</t>
   </si>
 </sst>
 </file>
@@ -355,16 +367,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -790,448 +799,448 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.33203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="16"/>
-    <col min="21" max="21" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="8"/>
-    <col min="32" max="32" width="6.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="21.83203125" style="8" customWidth="1"/>
-    <col min="35" max="35" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.83203125" style="8" customWidth="1"/>
-    <col min="37" max="37" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="9.1640625" style="8"/>
-    <col min="40" max="40" width="24.33203125" style="8" customWidth="1"/>
-    <col min="41" max="41" width="17.5" style="8" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="16"/>
-    <col min="43" max="43" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="16"/>
-    <col min="45" max="49" width="9.1640625" style="8"/>
-    <col min="50" max="50" width="9.1640625" style="16"/>
-    <col min="51" max="51" width="9.1640625" style="8"/>
-    <col min="52" max="52" width="9.1640625" style="16"/>
-    <col min="53" max="58" width="9.1640625" style="8"/>
-    <col min="59" max="59" width="9.1640625" style="16"/>
-    <col min="60" max="63" width="9.1640625" style="8"/>
-    <col min="64" max="64" width="21.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="9.1640625" style="8"/>
+    <col min="1" max="1" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="15"/>
+    <col min="21" max="21" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="7"/>
+    <col min="32" max="32" width="6.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="21.83203125" style="7" customWidth="1"/>
+    <col min="35" max="35" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.83203125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.1640625" style="7"/>
+    <col min="40" max="40" width="24.33203125" style="7" customWidth="1"/>
+    <col min="41" max="41" width="17.5" style="7" customWidth="1"/>
+    <col min="42" max="42" width="9.1640625" style="15"/>
+    <col min="43" max="43" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.1640625" style="15"/>
+    <col min="45" max="49" width="9.1640625" style="7"/>
+    <col min="50" max="50" width="9.1640625" style="15"/>
+    <col min="51" max="51" width="9.1640625" style="7"/>
+    <col min="52" max="52" width="9.1640625" style="15"/>
+    <col min="53" max="58" width="9.1640625" style="7"/>
+    <col min="59" max="59" width="9.1640625" style="15"/>
+    <col min="60" max="63" width="9.1640625" style="7"/>
+    <col min="64" max="64" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="12" customFormat="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:66" s="11" customFormat="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BC1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BG1" s="17" t="s">
+      <c r="BG1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BK1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BL1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BN1" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:66" ht="84">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AI2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AL2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" s="16" t="s">
+      <c r="AX2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BA2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BG2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="BI2" s="8" t="s">
+      <c r="BI2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BJ2" s="8" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BL2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BM2" s="9" t="s">
+      <c r="BM2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BN2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1255,23 +1264,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1290,10 +1299,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1302,7 +1311,7 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1326,7 +1335,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1338,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1355,12 +1364,12 @@
         <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>1234</v>
@@ -1372,35 +1381,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1721,16 +1702,16 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F2" t="s">
@@ -1760,45 +1741,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="9.1640625" style="8" customWidth="1"/>
+    <col min="1" max="7" width="9.1640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="67.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1815,34 +1796,34 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>58</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1851,10 +1832,10 @@
       <c r="L2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
